--- a/biology/Neurosciences/Mark_Changizi/Mark_Changizi.xlsx
+++ b/biology/Neurosciences/Mark_Changizi/Mark_Changizi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mark Changizi (né en 1969) est un neurobiologiste, théoricien et un auteur scientifique américain.
 </t>
@@ -511,10 +523,12 @@
           <t>Percevoir le présent</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Changizi propose d'expliquer les illusions visuelles avec le décalage entre le moment où la lumière frappe la rétine et celui où le cerveau traduit le signal en une perception visuelle du monde. Ce délai met environ un dixième de seconde.
-Changizi affirme que le système visuel humain a évolué pour compenser les retards de neurones en générant des images de ce qui se produira un dixième de seconde dans l'avenir. Cette clairvoyance permet aux humains de réagir à des événements au moment présent, d'accomplir des actes réfléchis comme attraper un ballon et de manœuvrer en douceur à travers une foule[1].
+Changizi affirme que le système visuel humain a évolué pour compenser les retards de neurones en générant des images de ce qui se produira un dixième de seconde dans l'avenir. Cette clairvoyance permet aux humains de réagir à des événements au moment présent, d'accomplir des actes réfléchis comme attraper un ballon et de manœuvrer en douceur à travers une foule.
 </t>
         </is>
       </c>
